--- a/Tabela de atividades.xlsx
+++ b/Tabela de atividades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e13f8c6e67224aec/Documentos/allan/atividades/engenharia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e13f8c6e67224aec/Documentos/allan/atividades/engenharia/Documentacao-ES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1A99F3BA-E999-489B-9D4A-176FF98DBB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E93B69D-6FDC-4885-9317-1A34276E1F63}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1A99F3BA-E999-489B-9D4A-176FF98DBB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05DB0148-2D59-44E2-922B-FB24B7023F0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D0427A-C606-41B9-B0EF-59066528954D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{21D0427A-C606-41B9-B0EF-59066528954D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1415,54 +1415,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1473,6 +1425,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E76EA9-FE9E-4919-A05C-9C0340B3F096}">
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2092,17 +2095,17 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="143">
+      <c r="A12" s="127">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="143" t="s">
+      <c r="C12" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="145"/>
+      <c r="D12" s="129"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -2255,140 +2258,140 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="143">
+      <c r="A23" s="127">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="143">
+      <c r="C23" s="127">
         <v>12</v>
       </c>
-      <c r="D23" s="145"/>
+      <c r="D23" s="129"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="143">
+      <c r="A24" s="127">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="147" t="s">
+      <c r="B24" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="143">
+      <c r="C24" s="127">
         <v>13</v>
       </c>
-      <c r="D24" s="145"/>
+      <c r="D24" s="129"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="143">
+      <c r="A25" s="127">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="143">
+      <c r="C25" s="127">
         <v>11</v>
       </c>
-      <c r="D25" s="145"/>
+      <c r="D25" s="129"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="143">
+      <c r="A26" s="127">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="143">
+      <c r="C26" s="127">
         <v>14</v>
       </c>
-      <c r="D26" s="145"/>
+      <c r="D26" s="129"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="143">
+      <c r="A27" s="127">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="143">
+      <c r="C27" s="127">
         <f>C26+1</f>
         <v>15</v>
       </c>
-      <c r="D27" s="145"/>
+      <c r="D27" s="129"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="143">
+      <c r="A28" s="127">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="143">
+      <c r="C28" s="127">
         <f t="shared" ref="C28:C32" si="1">C27+1</f>
         <v>16</v>
       </c>
-      <c r="D28" s="145"/>
+      <c r="D28" s="129"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="143">
+      <c r="A29" s="127">
         <f t="shared" ref="A29:A44" si="2">A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="147" t="s">
+      <c r="B29" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="143">
+      <c r="C29" s="127">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D29" s="145"/>
+      <c r="D29" s="129"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="143">
+      <c r="A30" s="127">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="143">
+      <c r="C30" s="127">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D30" s="145"/>
+      <c r="D30" s="129"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="143">
+      <c r="A31" s="127">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="143">
+      <c r="C31" s="127">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D31" s="145"/>
+      <c r="D31" s="129"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="143">
+      <c r="A32" s="127">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="147" t="s">
+      <c r="B32" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="143">
+      <c r="C32" s="127">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D32" s="145"/>
+      <c r="D32" s="129"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -2482,30 +2485,30 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="143">
+      <c r="A39" s="127">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B39" s="147" t="s">
+      <c r="B39" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="143" t="s">
+      <c r="C39" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="145"/>
+      <c r="D39" s="129"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="143">
+      <c r="A40" s="127">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B40" s="147" t="s">
+      <c r="B40" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C40" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="145"/>
+      <c r="D40" s="129"/>
     </row>
     <row r="41" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -2523,56 +2526,56 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="143">
+      <c r="A42" s="127">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="143" t="s">
+      <c r="C42" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="145"/>
+      <c r="D42" s="129"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="143">
+      <c r="A43" s="127">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B43" s="147" t="s">
+      <c r="B43" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="143" t="s">
+      <c r="C43" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="145"/>
+      <c r="D43" s="129"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="143">
+      <c r="A44" s="127">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B44" s="147" t="s">
+      <c r="B44" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="143" t="s">
+      <c r="C44" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="145"/>
+      <c r="D44" s="129"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="143">
+      <c r="A45" s="127">
         <f t="shared" ref="A45" si="3">A44+1</f>
         <v>43</v>
       </c>
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="143">
+      <c r="C45" s="127">
         <v>42</v>
       </c>
-      <c r="D45" s="145"/>
+      <c r="D45" s="129"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -2605,17 +2608,17 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="143">
+      <c r="A48" s="127">
         <f>A47+1</f>
         <v>46</v>
       </c>
-      <c r="B48" s="148" t="s">
+      <c r="B48" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="143" t="s">
+      <c r="C48" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="145"/>
+      <c r="D48" s="129"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -5038,126 +5041,126 @@
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
-      <c r="B44" s="129"/>
-      <c r="C44" s="127">
+      <c r="B44" s="144"/>
+      <c r="C44" s="139">
         <v>45474</v>
       </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="131">
+      <c r="D44" s="140"/>
+      <c r="E44" s="141">
         <f>C44+1</f>
         <v>45475</v>
       </c>
-      <c r="F44" s="132"/>
-      <c r="G44" s="127">
+      <c r="F44" s="142"/>
+      <c r="G44" s="139">
         <f>E44+1</f>
         <v>45476</v>
       </c>
-      <c r="H44" s="139"/>
-      <c r="I44" s="131">
+      <c r="H44" s="143"/>
+      <c r="I44" s="141">
         <f>G44+1</f>
         <v>45477</v>
       </c>
-      <c r="J44" s="132"/>
-      <c r="K44" s="127">
+      <c r="J44" s="142"/>
+      <c r="K44" s="139">
         <f>I44+1</f>
         <v>45478</v>
       </c>
-      <c r="L44" s="139"/>
-      <c r="M44" s="131">
+      <c r="L44" s="143"/>
+      <c r="M44" s="141">
         <f>C44+7</f>
         <v>45481</v>
       </c>
-      <c r="N44" s="132"/>
-      <c r="O44" s="127">
+      <c r="N44" s="142"/>
+      <c r="O44" s="139">
         <f>M44+1</f>
         <v>45482</v>
       </c>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="131">
+      <c r="P44" s="140"/>
+      <c r="Q44" s="141">
         <f>O44+1</f>
         <v>45483</v>
       </c>
-      <c r="R44" s="132"/>
-      <c r="S44" s="127">
+      <c r="R44" s="142"/>
+      <c r="S44" s="139">
         <f>Q44+1</f>
         <v>45484</v>
       </c>
-      <c r="T44" s="128"/>
-      <c r="U44" s="131">
+      <c r="T44" s="140"/>
+      <c r="U44" s="141">
         <f>S44+1</f>
         <v>45485</v>
       </c>
-      <c r="V44" s="132"/>
-      <c r="W44" s="127">
+      <c r="V44" s="142"/>
+      <c r="W44" s="139">
         <f>M44+7</f>
         <v>45488</v>
       </c>
-      <c r="X44" s="128"/>
-      <c r="Y44" s="131">
+      <c r="X44" s="140"/>
+      <c r="Y44" s="141">
         <f>W44+1</f>
         <v>45489</v>
       </c>
-      <c r="Z44" s="132"/>
-      <c r="AA44" s="127">
+      <c r="Z44" s="142"/>
+      <c r="AA44" s="139">
         <f>Y44+1</f>
         <v>45490</v>
       </c>
-      <c r="AB44" s="128"/>
-      <c r="AC44" s="131">
+      <c r="AB44" s="140"/>
+      <c r="AC44" s="141">
         <f>AA44+1</f>
         <v>45491</v>
       </c>
-      <c r="AD44" s="132"/>
-      <c r="AE44" s="127">
+      <c r="AD44" s="142"/>
+      <c r="AE44" s="139">
         <f>AC44+1</f>
         <v>45492</v>
       </c>
-      <c r="AF44" s="128"/>
-      <c r="AG44" s="131">
+      <c r="AF44" s="140"/>
+      <c r="AG44" s="141">
         <f>W44+7</f>
         <v>45495</v>
       </c>
-      <c r="AH44" s="132"/>
-      <c r="AI44" s="127">
+      <c r="AH44" s="142"/>
+      <c r="AI44" s="139">
         <f>AG44+1</f>
         <v>45496</v>
       </c>
-      <c r="AJ44" s="128"/>
-      <c r="AK44" s="131">
+      <c r="AJ44" s="140"/>
+      <c r="AK44" s="141">
         <f>AI44+1</f>
         <v>45497</v>
       </c>
-      <c r="AL44" s="132"/>
-      <c r="AM44" s="127">
+      <c r="AL44" s="142"/>
+      <c r="AM44" s="139">
         <f>AK44+1</f>
         <v>45498</v>
       </c>
-      <c r="AN44" s="128"/>
-      <c r="AO44" s="131">
+      <c r="AN44" s="140"/>
+      <c r="AO44" s="141">
         <f>AM44+1</f>
         <v>45499</v>
       </c>
-      <c r="AP44" s="132"/>
-      <c r="AQ44" s="127">
+      <c r="AP44" s="142"/>
+      <c r="AQ44" s="139">
         <f>AG44+7</f>
         <v>45502</v>
       </c>
-      <c r="AR44" s="128"/>
-      <c r="AS44" s="131">
+      <c r="AR44" s="140"/>
+      <c r="AS44" s="141">
         <f>AQ44+1</f>
         <v>45503</v>
       </c>
-      <c r="AT44" s="132"/>
-      <c r="AU44" s="127">
+      <c r="AT44" s="142"/>
+      <c r="AU44" s="139">
         <f>AS44+1</f>
         <v>45504</v>
       </c>
-      <c r="AV44" s="128"/>
+      <c r="AV44" s="140"/>
       <c r="AW44" s="9"/>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
-      <c r="B45" s="130"/>
+      <c r="B45" s="145"/>
       <c r="C45" s="135" t="s">
         <v>95</v>
       </c>
@@ -5218,6 +5221,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AU44:AV44"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:AV1"/>
     <mergeCell ref="AX2:AX4"/>
@@ -5234,18 +5249,6 @@
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="AS44:AT44"/>
-    <mergeCell ref="AU44:AV44"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AP44"/>
-    <mergeCell ref="AQ44:AR44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5255,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BC3C63-B8C9-4DA8-9CAF-862C934141E2}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5491,7 +5494,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="146" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="107"/>
@@ -5528,7 +5531,7 @@
       <c r="AF3" s="115"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="141"/>
+      <c r="A4" s="147"/>
       <c r="B4" s="94"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -5563,7 +5566,7 @@
       <c r="AF4" s="93"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="141"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="94"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -5598,7 +5601,7 @@
       <c r="AF5" s="93"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="94"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -5610,7 +5613,7 @@
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="149"/>
       <c r="N6" s="49"/>
       <c r="O6" s="48"/>
       <c r="P6" s="50">
@@ -5633,7 +5636,7 @@
       <c r="AF6" s="93"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="141"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="94"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -5668,7 +5671,7 @@
       <c r="AF7" s="93"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="141"/>
+      <c r="A8" s="147"/>
       <c r="B8" s="94"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -5703,7 +5706,7 @@
       <c r="AF8" s="93"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="141"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="116"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -5739,7 +5742,7 @@
       <c r="AF9" s="117"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="147" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="95"/>
@@ -5778,7 +5781,7 @@
       <c r="AF10" s="93"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="141"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="94"/>
       <c r="C11" s="68"/>
       <c r="D11" s="72">
@@ -5813,7 +5816,7 @@
       <c r="AF11" s="93"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="141"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="94"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -5848,7 +5851,7 @@
       <c r="AF12" s="93"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="141"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="94"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -5883,7 +5886,7 @@
       <c r="AF13" s="93"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="141"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="94"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -5918,7 +5921,7 @@
       <c r="AF14" s="93"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="141"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="116"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
@@ -5954,7 +5957,7 @@
       <c r="AF15" s="117"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="141" t="s">
+      <c r="A16" s="147" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="96"/>
@@ -5991,7 +5994,7 @@
       <c r="AF16" s="93"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="141"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="94"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -6026,7 +6029,7 @@
       <c r="AF17" s="93"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="141"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="94"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -6061,7 +6064,7 @@
       <c r="AF18" s="93"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="141"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="94"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -6096,7 +6099,7 @@
       <c r="AF19" s="93"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="116"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
@@ -6131,7 +6134,7 @@
       <c r="AF20" s="117"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="141" t="s">
+      <c r="A21" s="147" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="119"/>
@@ -6169,7 +6172,7 @@
       <c r="AF21" s="121"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="141"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="94"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -6204,7 +6207,7 @@
       <c r="AF22" s="93"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="141"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="94"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -6239,7 +6242,7 @@
       <c r="AF23" s="93"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="141"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="94"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -6274,7 +6277,7 @@
       <c r="AF24" s="93"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="141"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="94"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -6309,7 +6312,7 @@
       <c r="AF25" s="93"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="141"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="116"/>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -6345,7 +6348,7 @@
       <c r="AF26" s="117"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="147" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="97"/>
@@ -6382,7 +6385,7 @@
       <c r="AF27" s="93"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="141"/>
+      <c r="A28" s="147"/>
       <c r="B28" s="94"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -6417,7 +6420,7 @@
       <c r="AF28" s="93"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="141"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="94"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -6452,7 +6455,7 @@
       <c r="AF29" s="93"/>
     </row>
     <row r="30" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="142"/>
+      <c r="A30" s="148"/>
       <c r="B30" s="98"/>
       <c r="C30" s="99"/>
       <c r="D30" s="99"/>

--- a/Tabela de atividades.xlsx
+++ b/Tabela de atividades.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1A99F3BA-E999-489B-9D4A-176FF98DBB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05DB0148-2D59-44E2-922B-FB24B7023F0A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{21D0427A-C606-41B9-B0EF-59066528954D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21D0427A-C606-41B9-B0EF-59066528954D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
@@ -1425,6 +1425,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,27 +1464,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="6" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1472,9 +1475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E76EA9-FE9E-4919-A05C-9C0340B3F096}">
   <dimension ref="A2:G53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2668,60 +2668,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135"/>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="135"/>
-      <c r="AV1" s="135"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
     </row>
     <row r="2" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="B2" s="134"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="46">
         <v>1</v>
       </c>
@@ -2905,7 +2905,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AX2" s="136" t="s">
+      <c r="AX2" s="143" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       <c r="AT3" s="9"/>
       <c r="AU3" s="9"/>
       <c r="AV3" s="21"/>
-      <c r="AX3" s="137"/>
+      <c r="AX3" s="144"/>
     </row>
     <row r="4" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="45">
@@ -3012,7 +3012,7 @@
       <c r="AT4" s="9"/>
       <c r="AU4" s="9"/>
       <c r="AV4" s="21"/>
-      <c r="AX4" s="138"/>
+      <c r="AX4" s="145"/>
     </row>
     <row r="5" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="44">
@@ -5041,174 +5041,174 @@
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="139">
+      <c r="B44" s="136"/>
+      <c r="C44" s="134">
         <v>45474</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="141">
+      <c r="D44" s="135"/>
+      <c r="E44" s="138">
         <f>C44+1</f>
         <v>45475</v>
       </c>
-      <c r="F44" s="142"/>
-      <c r="G44" s="139">
+      <c r="F44" s="139"/>
+      <c r="G44" s="134">
         <f>E44+1</f>
         <v>45476</v>
       </c>
-      <c r="H44" s="143"/>
-      <c r="I44" s="141">
+      <c r="H44" s="146"/>
+      <c r="I44" s="138">
         <f>G44+1</f>
         <v>45477</v>
       </c>
-      <c r="J44" s="142"/>
-      <c r="K44" s="139">
+      <c r="J44" s="139"/>
+      <c r="K44" s="134">
         <f>I44+1</f>
         <v>45478</v>
       </c>
-      <c r="L44" s="143"/>
-      <c r="M44" s="141">
+      <c r="L44" s="146"/>
+      <c r="M44" s="138">
         <f>C44+7</f>
         <v>45481</v>
       </c>
-      <c r="N44" s="142"/>
-      <c r="O44" s="139">
+      <c r="N44" s="139"/>
+      <c r="O44" s="134">
         <f>M44+1</f>
         <v>45482</v>
       </c>
-      <c r="P44" s="140"/>
-      <c r="Q44" s="141">
+      <c r="P44" s="135"/>
+      <c r="Q44" s="138">
         <f>O44+1</f>
         <v>45483</v>
       </c>
-      <c r="R44" s="142"/>
-      <c r="S44" s="139">
+      <c r="R44" s="139"/>
+      <c r="S44" s="134">
         <f>Q44+1</f>
         <v>45484</v>
       </c>
-      <c r="T44" s="140"/>
-      <c r="U44" s="141">
+      <c r="T44" s="135"/>
+      <c r="U44" s="138">
         <f>S44+1</f>
         <v>45485</v>
       </c>
-      <c r="V44" s="142"/>
-      <c r="W44" s="139">
+      <c r="V44" s="139"/>
+      <c r="W44" s="134">
         <f>M44+7</f>
         <v>45488</v>
       </c>
-      <c r="X44" s="140"/>
-      <c r="Y44" s="141">
+      <c r="X44" s="135"/>
+      <c r="Y44" s="138">
         <f>W44+1</f>
         <v>45489</v>
       </c>
-      <c r="Z44" s="142"/>
-      <c r="AA44" s="139">
+      <c r="Z44" s="139"/>
+      <c r="AA44" s="134">
         <f>Y44+1</f>
         <v>45490</v>
       </c>
-      <c r="AB44" s="140"/>
-      <c r="AC44" s="141">
+      <c r="AB44" s="135"/>
+      <c r="AC44" s="138">
         <f>AA44+1</f>
         <v>45491</v>
       </c>
-      <c r="AD44" s="142"/>
-      <c r="AE44" s="139">
+      <c r="AD44" s="139"/>
+      <c r="AE44" s="134">
         <f>AC44+1</f>
         <v>45492</v>
       </c>
-      <c r="AF44" s="140"/>
-      <c r="AG44" s="141">
+      <c r="AF44" s="135"/>
+      <c r="AG44" s="138">
         <f>W44+7</f>
         <v>45495</v>
       </c>
-      <c r="AH44" s="142"/>
-      <c r="AI44" s="139">
+      <c r="AH44" s="139"/>
+      <c r="AI44" s="134">
         <f>AG44+1</f>
         <v>45496</v>
       </c>
-      <c r="AJ44" s="140"/>
-      <c r="AK44" s="141">
+      <c r="AJ44" s="135"/>
+      <c r="AK44" s="138">
         <f>AI44+1</f>
         <v>45497</v>
       </c>
-      <c r="AL44" s="142"/>
-      <c r="AM44" s="139">
+      <c r="AL44" s="139"/>
+      <c r="AM44" s="134">
         <f>AK44+1</f>
         <v>45498</v>
       </c>
-      <c r="AN44" s="140"/>
-      <c r="AO44" s="141">
+      <c r="AN44" s="135"/>
+      <c r="AO44" s="138">
         <f>AM44+1</f>
         <v>45499</v>
       </c>
-      <c r="AP44" s="142"/>
-      <c r="AQ44" s="139">
+      <c r="AP44" s="139"/>
+      <c r="AQ44" s="134">
         <f>AG44+7</f>
         <v>45502</v>
       </c>
-      <c r="AR44" s="140"/>
-      <c r="AS44" s="141">
+      <c r="AR44" s="135"/>
+      <c r="AS44" s="138">
         <f>AQ44+1</f>
         <v>45503</v>
       </c>
-      <c r="AT44" s="142"/>
-      <c r="AU44" s="139">
+      <c r="AT44" s="139"/>
+      <c r="AU44" s="134">
         <f>AS44+1</f>
         <v>45504</v>
       </c>
-      <c r="AV44" s="140"/>
+      <c r="AV44" s="135"/>
       <c r="AW44" s="9"/>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
-      <c r="B45" s="145"/>
-      <c r="C45" s="135" t="s">
+      <c r="B45" s="137"/>
+      <c r="C45" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="135"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="135"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="135"/>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="135"/>
-      <c r="W45" s="135"/>
-      <c r="X45" s="135"/>
-      <c r="Y45" s="135"/>
-      <c r="Z45" s="135"/>
-      <c r="AA45" s="135"/>
-      <c r="AB45" s="135"/>
-      <c r="AC45" s="135"/>
-      <c r="AD45" s="135"/>
-      <c r="AE45" s="135"/>
-      <c r="AF45" s="135"/>
-      <c r="AG45" s="135"/>
-      <c r="AH45" s="135"/>
-      <c r="AI45" s="135"/>
-      <c r="AJ45" s="135"/>
-      <c r="AK45" s="135"/>
-      <c r="AL45" s="135"/>
-      <c r="AM45" s="135"/>
-      <c r="AN45" s="135"/>
-      <c r="AO45" s="135"/>
-      <c r="AP45" s="135"/>
-      <c r="AQ45" s="135"/>
-      <c r="AR45" s="135"/>
-      <c r="AS45" s="135"/>
-      <c r="AT45" s="135"/>
-      <c r="AU45" s="135"/>
-      <c r="AV45" s="135"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="142"/>
+      <c r="M45" s="142"/>
+      <c r="N45" s="142"/>
+      <c r="O45" s="142"/>
+      <c r="P45" s="142"/>
+      <c r="Q45" s="142"/>
+      <c r="R45" s="142"/>
+      <c r="S45" s="142"/>
+      <c r="T45" s="142"/>
+      <c r="U45" s="142"/>
+      <c r="V45" s="142"/>
+      <c r="W45" s="142"/>
+      <c r="X45" s="142"/>
+      <c r="Y45" s="142"/>
+      <c r="Z45" s="142"/>
+      <c r="AA45" s="142"/>
+      <c r="AB45" s="142"/>
+      <c r="AC45" s="142"/>
+      <c r="AD45" s="142"/>
+      <c r="AE45" s="142"/>
+      <c r="AF45" s="142"/>
+      <c r="AG45" s="142"/>
+      <c r="AH45" s="142"/>
+      <c r="AI45" s="142"/>
+      <c r="AJ45" s="142"/>
+      <c r="AK45" s="142"/>
+      <c r="AL45" s="142"/>
+      <c r="AM45" s="142"/>
+      <c r="AN45" s="142"/>
+      <c r="AO45" s="142"/>
+      <c r="AP45" s="142"/>
+      <c r="AQ45" s="142"/>
+      <c r="AR45" s="142"/>
+      <c r="AS45" s="142"/>
+      <c r="AT45" s="142"/>
+      <c r="AU45" s="142"/>
+      <c r="AV45" s="142"/>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
@@ -5221,18 +5221,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AU44:AV44"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AP44"/>
-    <mergeCell ref="AQ44:AR44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:AV1"/>
     <mergeCell ref="AX2:AX4"/>
@@ -5249,6 +5237,18 @@
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="AS44:AT44"/>
+    <mergeCell ref="AU44:AV44"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5258,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BC3C63-B8C9-4DA8-9CAF-862C934141E2}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5494,7 +5494,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="147" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="107"/>
@@ -5531,7 +5531,7 @@
       <c r="AF3" s="115"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="147"/>
+      <c r="A4" s="148"/>
       <c r="B4" s="94"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -5566,7 +5566,7 @@
       <c r="AF4" s="93"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="147"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="94"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -5601,7 +5601,7 @@
       <c r="AF5" s="93"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="147"/>
+      <c r="A6" s="148"/>
       <c r="B6" s="94"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -5613,7 +5613,7 @@
       <c r="J6" s="68"/>
       <c r="K6" s="68"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="149"/>
+      <c r="M6" s="133"/>
       <c r="N6" s="49"/>
       <c r="O6" s="48"/>
       <c r="P6" s="50">
@@ -5636,7 +5636,7 @@
       <c r="AF6" s="93"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="94"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -5671,7 +5671,7 @@
       <c r="AF7" s="93"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="147"/>
+      <c r="A8" s="148"/>
       <c r="B8" s="94"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -5706,7 +5706,7 @@
       <c r="AF8" s="93"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="147"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="116"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -5742,7 +5742,7 @@
       <c r="AF9" s="117"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="148" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="95"/>
@@ -5781,7 +5781,7 @@
       <c r="AF10" s="93"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="94"/>
       <c r="C11" s="68"/>
       <c r="D11" s="72">
@@ -5816,7 +5816,7 @@
       <c r="AF11" s="93"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="147"/>
+      <c r="A12" s="148"/>
       <c r="B12" s="94"/>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -5851,7 +5851,7 @@
       <c r="AF12" s="93"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
+      <c r="A13" s="148"/>
       <c r="B13" s="94"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -5886,7 +5886,7 @@
       <c r="AF13" s="93"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="147"/>
+      <c r="A14" s="148"/>
       <c r="B14" s="94"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -5921,7 +5921,7 @@
       <c r="AF14" s="93"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="116"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
@@ -5957,7 +5957,7 @@
       <c r="AF15" s="117"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="148" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="96"/>
@@ -5994,7 +5994,7 @@
       <c r="AF16" s="93"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="147"/>
+      <c r="A17" s="148"/>
       <c r="B17" s="94"/>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -6029,7 +6029,7 @@
       <c r="AF17" s="93"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" s="147"/>
+      <c r="A18" s="148"/>
       <c r="B18" s="94"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -6064,7 +6064,7 @@
       <c r="AF18" s="93"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" s="147"/>
+      <c r="A19" s="148"/>
       <c r="B19" s="94"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -6099,7 +6099,7 @@
       <c r="AF19" s="93"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="147"/>
+      <c r="A20" s="148"/>
       <c r="B20" s="116"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
@@ -6134,7 +6134,7 @@
       <c r="AF20" s="117"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" s="147" t="s">
+      <c r="A21" s="148" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="119"/>
@@ -6172,7 +6172,7 @@
       <c r="AF21" s="121"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="147"/>
+      <c r="A22" s="148"/>
       <c r="B22" s="94"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -6207,7 +6207,7 @@
       <c r="AF22" s="93"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="147"/>
+      <c r="A23" s="148"/>
       <c r="B23" s="94"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -6242,7 +6242,7 @@
       <c r="AF23" s="93"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="147"/>
+      <c r="A24" s="148"/>
       <c r="B24" s="94"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -6277,7 +6277,7 @@
       <c r="AF24" s="93"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="147"/>
+      <c r="A25" s="148"/>
       <c r="B25" s="94"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -6312,7 +6312,7 @@
       <c r="AF25" s="93"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="147"/>
+      <c r="A26" s="148"/>
       <c r="B26" s="116"/>
       <c r="C26" s="70"/>
       <c r="D26" s="70"/>
@@ -6348,7 +6348,7 @@
       <c r="AF26" s="117"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="148" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="97"/>
@@ -6385,7 +6385,7 @@
       <c r="AF27" s="93"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="147"/>
+      <c r="A28" s="148"/>
       <c r="B28" s="94"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -6420,7 +6420,7 @@
       <c r="AF28" s="93"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="147"/>
+      <c r="A29" s="148"/>
       <c r="B29" s="94"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -6455,7 +6455,7 @@
       <c r="AF29" s="93"/>
     </row>
     <row r="30" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="148"/>
+      <c r="A30" s="149"/>
       <c r="B30" s="98"/>
       <c r="C30" s="99"/>
       <c r="D30" s="99"/>

--- a/Tabela de atividades.xlsx
+++ b/Tabela de atividades.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{1A99F3BA-E999-489B-9D4A-176FF98DBB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D19AC26D-7511-4A3E-A509-466544B6C1E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{21D0427A-C606-41B9-B0EF-59066528954D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21D0427A-C606-41B9-B0EF-59066528954D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
@@ -1637,6 +1637,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1655,14 +1664,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1682,25 +1700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="6" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2174,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E76EA9-FE9E-4919-A05C-9C0340B3F096}">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2947,14 +2947,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E6C602-3DFD-438B-A3D6-4E92381F8F3C}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:25" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="161" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="86" t="s">
@@ -3029,7 +3029,7 @@
       <c r="Y1" s="81"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159"/>
+      <c r="A2" s="162"/>
       <c r="B2" s="87">
         <v>45536</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="Y2" s="142"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="163" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="62"/>
@@ -3154,7 +3154,7 @@
       <c r="Y3" s="43"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="161"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -3183,7 +3183,7 @@
       <c r="Y4" s="43"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="165" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="62"/>
@@ -3214,7 +3214,7 @@
       <c r="Y5" s="43"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="163"/>
+      <c r="A6" s="166"/>
       <c r="B6" s="62"/>
       <c r="C6" s="63"/>
       <c r="D6" s="63"/>
@@ -3243,7 +3243,7 @@
       <c r="Y6" s="43"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="163"/>
+      <c r="A7" s="166"/>
       <c r="B7" s="62"/>
       <c r="C7" s="63"/>
       <c r="D7" s="63"/>
@@ -3272,7 +3272,7 @@
       <c r="Y7" s="43"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="163"/>
+      <c r="A8" s="166"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
@@ -3301,7 +3301,7 @@
       <c r="Y8" s="43"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="64"/>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
@@ -3330,7 +3330,7 @@
       <c r="Y9" s="43"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="158" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="62"/>
@@ -3361,7 +3361,7 @@
       <c r="Y10" s="43"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="165"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="62"/>
       <c r="C11" s="123"/>
       <c r="D11" s="123"/>
@@ -3390,7 +3390,7 @@
       <c r="Y11" s="43"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="166"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="64"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
@@ -3419,7 +3419,7 @@
       <c r="Y12" s="43"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="158" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="63"/>
@@ -3449,7 +3449,7 @@
       <c r="Y13" s="43"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="165"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
@@ -3478,7 +3478,7 @@
       <c r="Y14" s="43"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="166"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="63"/>
       <c r="C15" s="65"/>
       <c r="D15" s="65"/>
@@ -3507,7 +3507,7 @@
       <c r="Y15" s="43"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="158" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="59"/>
@@ -3538,7 +3538,7 @@
       <c r="Y16" s="43"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="165"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="63"/>
       <c r="C17" s="123"/>
       <c r="D17" s="123"/>
@@ -3567,7 +3567,7 @@
       <c r="Y17" s="43"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="165"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -3596,7 +3596,7 @@
       <c r="Y18" s="43"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="166"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
@@ -4004,60 +4004,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="169"/>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="169"/>
-      <c r="AK1" s="169"/>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="169"/>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="169"/>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="169"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
-      <c r="AV1" s="169"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
+      <c r="AK1" s="175"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="175"/>
+      <c r="AN1" s="175"/>
+      <c r="AO1" s="175"/>
+      <c r="AP1" s="175"/>
+      <c r="AQ1" s="175"/>
+      <c r="AR1" s="175"/>
+      <c r="AS1" s="175"/>
+      <c r="AT1" s="175"/>
+      <c r="AU1" s="175"/>
+      <c r="AV1" s="175"/>
     </row>
     <row r="2" spans="2:50" x14ac:dyDescent="0.3">
-      <c r="B2" s="168"/>
+      <c r="B2" s="174"/>
       <c r="C2" s="41">
         <v>1</v>
       </c>
@@ -4241,7 +4241,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AX2" s="170" t="s">
+      <c r="AX2" s="176" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="16"/>
-      <c r="AX3" s="171"/>
+      <c r="AX3" s="177"/>
     </row>
     <row r="4" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="40">
@@ -4348,7 +4348,7 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
       <c r="AV4" s="16"/>
-      <c r="AX4" s="172"/>
+      <c r="AX4" s="178"/>
     </row>
     <row r="5" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="39">
@@ -6377,174 +6377,174 @@
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="173">
+      <c r="B44" s="169"/>
+      <c r="C44" s="167">
         <v>45474</v>
       </c>
-      <c r="D44" s="174"/>
-      <c r="E44" s="175">
+      <c r="D44" s="168"/>
+      <c r="E44" s="171">
         <f>C44+1</f>
         <v>45475</v>
       </c>
-      <c r="F44" s="176"/>
-      <c r="G44" s="173">
+      <c r="F44" s="172"/>
+      <c r="G44" s="167">
         <f>E44+1</f>
         <v>45476</v>
       </c>
-      <c r="H44" s="177"/>
-      <c r="I44" s="175">
+      <c r="H44" s="179"/>
+      <c r="I44" s="171">
         <f>G44+1</f>
         <v>45477</v>
       </c>
-      <c r="J44" s="176"/>
-      <c r="K44" s="173">
+      <c r="J44" s="172"/>
+      <c r="K44" s="167">
         <f>I44+1</f>
         <v>45478</v>
       </c>
-      <c r="L44" s="177"/>
-      <c r="M44" s="175">
+      <c r="L44" s="179"/>
+      <c r="M44" s="171">
         <f>C44+7</f>
         <v>45481</v>
       </c>
-      <c r="N44" s="176"/>
-      <c r="O44" s="173">
+      <c r="N44" s="172"/>
+      <c r="O44" s="167">
         <f>M44+1</f>
         <v>45482</v>
       </c>
-      <c r="P44" s="174"/>
-      <c r="Q44" s="175">
+      <c r="P44" s="168"/>
+      <c r="Q44" s="171">
         <f>O44+1</f>
         <v>45483</v>
       </c>
-      <c r="R44" s="176"/>
-      <c r="S44" s="173">
+      <c r="R44" s="172"/>
+      <c r="S44" s="167">
         <f>Q44+1</f>
         <v>45484</v>
       </c>
-      <c r="T44" s="174"/>
-      <c r="U44" s="175">
+      <c r="T44" s="168"/>
+      <c r="U44" s="171">
         <f>S44+1</f>
         <v>45485</v>
       </c>
-      <c r="V44" s="176"/>
-      <c r="W44" s="173">
+      <c r="V44" s="172"/>
+      <c r="W44" s="167">
         <f>M44+7</f>
         <v>45488</v>
       </c>
-      <c r="X44" s="174"/>
-      <c r="Y44" s="175">
+      <c r="X44" s="168"/>
+      <c r="Y44" s="171">
         <f>W44+1</f>
         <v>45489</v>
       </c>
-      <c r="Z44" s="176"/>
-      <c r="AA44" s="173">
+      <c r="Z44" s="172"/>
+      <c r="AA44" s="167">
         <f>Y44+1</f>
         <v>45490</v>
       </c>
-      <c r="AB44" s="174"/>
-      <c r="AC44" s="175">
+      <c r="AB44" s="168"/>
+      <c r="AC44" s="171">
         <f>AA44+1</f>
         <v>45491</v>
       </c>
-      <c r="AD44" s="176"/>
-      <c r="AE44" s="173">
+      <c r="AD44" s="172"/>
+      <c r="AE44" s="167">
         <f>AC44+1</f>
         <v>45492</v>
       </c>
-      <c r="AF44" s="174"/>
-      <c r="AG44" s="175">
+      <c r="AF44" s="168"/>
+      <c r="AG44" s="171">
         <f>W44+7</f>
         <v>45495</v>
       </c>
-      <c r="AH44" s="176"/>
-      <c r="AI44" s="173">
+      <c r="AH44" s="172"/>
+      <c r="AI44" s="167">
         <f>AG44+1</f>
         <v>45496</v>
       </c>
-      <c r="AJ44" s="174"/>
-      <c r="AK44" s="175">
+      <c r="AJ44" s="168"/>
+      <c r="AK44" s="171">
         <f>AI44+1</f>
         <v>45497</v>
       </c>
-      <c r="AL44" s="176"/>
-      <c r="AM44" s="173">
+      <c r="AL44" s="172"/>
+      <c r="AM44" s="167">
         <f>AK44+1</f>
         <v>45498</v>
       </c>
-      <c r="AN44" s="174"/>
-      <c r="AO44" s="175">
+      <c r="AN44" s="168"/>
+      <c r="AO44" s="171">
         <f>AM44+1</f>
         <v>45499</v>
       </c>
-      <c r="AP44" s="176"/>
-      <c r="AQ44" s="173">
+      <c r="AP44" s="172"/>
+      <c r="AQ44" s="167">
         <f>AG44+7</f>
         <v>45502</v>
       </c>
-      <c r="AR44" s="174"/>
-      <c r="AS44" s="175">
+      <c r="AR44" s="168"/>
+      <c r="AS44" s="171">
         <f>AQ44+1</f>
         <v>45503</v>
       </c>
-      <c r="AT44" s="176"/>
-      <c r="AU44" s="173">
+      <c r="AT44" s="172"/>
+      <c r="AU44" s="167">
         <f>AS44+1</f>
         <v>45504</v>
       </c>
-      <c r="AV44" s="174"/>
+      <c r="AV44" s="168"/>
       <c r="AW44" s="4"/>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="169" t="s">
+      <c r="B45" s="170"/>
+      <c r="C45" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="169"/>
-      <c r="I45" s="169"/>
-      <c r="J45" s="169"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="169"/>
-      <c r="M45" s="169"/>
-      <c r="N45" s="169"/>
-      <c r="O45" s="169"/>
-      <c r="P45" s="169"/>
-      <c r="Q45" s="169"/>
-      <c r="R45" s="169"/>
-      <c r="S45" s="169"/>
-      <c r="T45" s="169"/>
-      <c r="U45" s="169"/>
-      <c r="V45" s="169"/>
-      <c r="W45" s="169"/>
-      <c r="X45" s="169"/>
-      <c r="Y45" s="169"/>
-      <c r="Z45" s="169"/>
-      <c r="AA45" s="169"/>
-      <c r="AB45" s="169"/>
-      <c r="AC45" s="169"/>
-      <c r="AD45" s="169"/>
-      <c r="AE45" s="169"/>
-      <c r="AF45" s="169"/>
-      <c r="AG45" s="169"/>
-      <c r="AH45" s="169"/>
-      <c r="AI45" s="169"/>
-      <c r="AJ45" s="169"/>
-      <c r="AK45" s="169"/>
-      <c r="AL45" s="169"/>
-      <c r="AM45" s="169"/>
-      <c r="AN45" s="169"/>
-      <c r="AO45" s="169"/>
-      <c r="AP45" s="169"/>
-      <c r="AQ45" s="169"/>
-      <c r="AR45" s="169"/>
-      <c r="AS45" s="169"/>
-      <c r="AT45" s="169"/>
-      <c r="AU45" s="169"/>
-      <c r="AV45" s="169"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="175"/>
+      <c r="L45" s="175"/>
+      <c r="M45" s="175"/>
+      <c r="N45" s="175"/>
+      <c r="O45" s="175"/>
+      <c r="P45" s="175"/>
+      <c r="Q45" s="175"/>
+      <c r="R45" s="175"/>
+      <c r="S45" s="175"/>
+      <c r="T45" s="175"/>
+      <c r="U45" s="175"/>
+      <c r="V45" s="175"/>
+      <c r="W45" s="175"/>
+      <c r="X45" s="175"/>
+      <c r="Y45" s="175"/>
+      <c r="Z45" s="175"/>
+      <c r="AA45" s="175"/>
+      <c r="AB45" s="175"/>
+      <c r="AC45" s="175"/>
+      <c r="AD45" s="175"/>
+      <c r="AE45" s="175"/>
+      <c r="AF45" s="175"/>
+      <c r="AG45" s="175"/>
+      <c r="AH45" s="175"/>
+      <c r="AI45" s="175"/>
+      <c r="AJ45" s="175"/>
+      <c r="AK45" s="175"/>
+      <c r="AL45" s="175"/>
+      <c r="AM45" s="175"/>
+      <c r="AN45" s="175"/>
+      <c r="AO45" s="175"/>
+      <c r="AP45" s="175"/>
+      <c r="AQ45" s="175"/>
+      <c r="AR45" s="175"/>
+      <c r="AS45" s="175"/>
+      <c r="AT45" s="175"/>
+      <c r="AU45" s="175"/>
+      <c r="AV45" s="175"/>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
@@ -6557,18 +6557,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AU44:AV44"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AP44"/>
-    <mergeCell ref="AQ44:AR44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:AV1"/>
     <mergeCell ref="AX2:AX4"/>
@@ -6585,6 +6573,18 @@
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="AS44:AT44"/>
+    <mergeCell ref="AU44:AV44"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AP44"/>
+    <mergeCell ref="AQ44:AR44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6595,7 +6595,7 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U30"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
